--- a/medicine/Maladie à coronavirus 2019/Staged/Staged.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Staged/Staged.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Staged est une série télévisée humoristique britannique créée en juin 2020 sur BBC One pendant le confinement de la pandémie COVID-19. La production des épisodes série utilise principalement la visioconférence et la série comporte trois saisons[1].
+Staged est une série télévisée humoristique britannique créée en juin 2020 sur BBC One pendant le confinement de la pandémie COVID-19. La production des épisodes série utilise principalement la visioconférence et la série comporte trois saisons.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael Sheen et David Tennant  jouent des versions fictionnelles d'eux-mêmes, qui essaient de répéter la pièce Six personnages en quête d'auteur de Luigi Pirandello, pendant le confinement[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Sheen et David Tennant  jouent des versions fictionnelles d'eux-mêmes, qui essaient de répéter la pièce Six personnages en quête d'auteur de Luigi Pirandello, pendant le confinement,.
 </t>
         </is>
       </c>
@@ -545,15 +559,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Le casting principal
-Michael Sheen : lui-même, le petit ami de Anna
+          <t>Le casting principal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Michael Sheen : lui-même, le petit ami de Anna
 David Tennant : lui-même, le mari de Georgia
 Simon Evans (director) (en) : lui-même, le directeur de la pièce, le frère de Lucy
 Georgia Tennant : elle-même, la femme de David
 Anna Lundberg : elle-même, la petite amie de Michael
-Lucy Eaton : elle-même, la sœur de Simon
-Invités
-Nina Sosanya : Jo, qui finance la pièce/Elle-même
+Lucy Eaton : elle-même, la sœur de Simon</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Staged</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Staged</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nina Sosanya : Jo, qui finance la pièce/Elle-même
 Rebecca Gage : Janine, l'assistante de Jo (voix uniquement)
 Samuel L. Jackson : lui-même
 Adrian Lester : lui-même
@@ -583,37 +636,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Staged</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Staged</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Épisodes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'émission est sortie aux États-Unis via le service de streaming Hulu le 16 septembre 2020[4].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -635,10 +657,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'émission est sortie aux États-Unis via le service de streaming Hulu le 16 septembre 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Staged</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Staged</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Chilton, dans The Independent, attribue quatre étoiles à Staged qu'il décrit comme "une distraction bienvenue, le portrait très agréable à voir de deux artistes en enfants égoïstes et irritables". Anna Leszkiewicz, pour le New Statesman, a déclaré que c'était "charmant : absurdement idiot, d'une manière tranquille et sobre". Gabriel Tate, qui a fait la critique de Staged pour Metro, a dit que "Sheen et Tennant partageaient une chaleur et une volonté de se payer chacun la tête de l'autre qui semblaient parfaitement spontanées". Fergus Morgan, écrivant dans The Stage, a décerné cinq étoiles à la production et a déclaré : "Tennant et Sheen sont excellents, de façon constante, même lorsqu'ils jouent leur propre personnage sur leur propre ordinateur portable. Ici, rejoints par Evans et par leurs vraies épouses - les actrices Georgia Tennant et Anna Lundberg - ils sont en pleine forme, crépitant de chimie sarcastique. Tout cela est un régal."
 </t>
